--- a/積載計画1.xlsx
+++ b/積載計画1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ts_pm_a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE01881-46C7-40DA-9BF7-60F87A22EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF22D50-9536-4A0C-8835-1C197F6C2EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="69">
   <si>
     <t>項目</t>
   </si>
@@ -137,9 +137,6 @@
     <t>V053904703</t>
   </si>
   <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
     <t>2025-10-20</t>
   </si>
   <si>
@@ -167,10 +164,70 @@
     <t>2025-10-27</t>
   </si>
   <si>
-    <t>2025-10-26</t>
+    <t>2025-10-28</t>
   </si>
   <si>
-    <t>2025-10-28</t>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
   </si>
 </sst>
 </file>
@@ -561,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -670,70 +727,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
@@ -742,16 +735,16 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -774,16 +767,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>30</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -798,67 +791,67 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="J12">
-        <v>26</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -867,60 +860,92 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="J14">
-        <v>37.5</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>24.8</v>
+        <v>37.5</v>
       </c>
       <c r="K16">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>26</v>
@@ -928,25 +953,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>24.8</v>
@@ -960,25 +985,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>24.8</v>
@@ -987,65 +1012,65 @@
         <v>22.8</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
+      <c r="J19">
+        <v>24.8</v>
+      </c>
+      <c r="K19">
+        <v>22.8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21">
-        <v>96.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1056,25 +1081,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
       </c>
       <c r="J22">
         <v>96.1</v>
@@ -1088,25 +1113,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
       </c>
       <c r="J23">
         <v>96.1</v>
@@ -1120,7 +1145,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1132,13 +1157,13 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>96.1</v>
@@ -1152,25 +1177,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>96.1</v>
@@ -1182,41 +1207,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27">
-        <v>95.2</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>41</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>96.1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -1228,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>95.2</v>
@@ -1243,30 +1268,30 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29">
         <v>95.2</v>
@@ -1280,28 +1305,28 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30">
-        <v>84.3</v>
+        <v>95.2</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1312,28 +1337,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J31">
-        <v>98.1</v>
+        <v>84.3</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1344,25 +1369,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>98.1</v>
@@ -1376,25 +1401,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>98.1</v>
@@ -1408,25 +1433,25 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>98.1</v>
@@ -1440,25 +1465,25 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>98.1</v>
@@ -1472,10 +1497,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -1484,77 +1509,77 @@
         <v>30</v>
       </c>
       <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36">
+        <v>98.1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>48</v>
       </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36">
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37">
         <v>29.5</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>45</v>
       </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38">
-        <v>95.2</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>41</v>
+      <c r="L37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>95.2</v>
@@ -1563,30 +1588,30 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>95.2</v>
@@ -1600,25 +1625,25 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>95.2</v>
@@ -1632,25 +1657,25 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>95.2</v>
@@ -1664,28 +1689,28 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
-        <v>93.7</v>
+        <v>95.2</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -1696,28 +1721,28 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J44">
-        <v>96.1</v>
+        <v>93.7</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -1728,25 +1753,25 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>96.1</v>
@@ -1760,25 +1785,25 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>96.1</v>
@@ -1792,7 +1817,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -1804,13 +1829,13 @@
         <v>30</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>96.1</v>
@@ -1824,25 +1849,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>96.1</v>
@@ -1856,10 +1881,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -1868,77 +1893,77 @@
         <v>30</v>
       </c>
       <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49">
+        <v>96.1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>16</v>
       </c>
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49">
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>15</v>
       </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51">
-        <v>14</v>
-      </c>
-      <c r="F51">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51">
-        <v>95.2</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="L50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>95.2</v>
@@ -1952,25 +1977,25 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>95.2</v>
@@ -1984,28 +2009,28 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
         <v>34</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54">
-        <v>93.7</v>
+        <v>95.2</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2016,28 +2041,28 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F55">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J55">
-        <v>98.6</v>
+        <v>93.7</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2048,25 +2073,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>98.6</v>
@@ -2080,25 +2105,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F57">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>98.6</v>
@@ -2112,7 +2137,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -2124,13 +2149,13 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>98.6</v>
@@ -2144,25 +2169,25 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>30</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>98.6</v>
@@ -2176,31 +2201,31 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60">
-        <v>11.8</v>
+        <v>98.6</v>
       </c>
       <c r="K60">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>26</v>
@@ -2208,25 +2233,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>11.8</v>
@@ -2238,41 +2263,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>47</v>
-      </c>
-      <c r="J63">
-        <v>95.2</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>41</v>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62">
+        <v>11.8</v>
+      </c>
+      <c r="K62">
+        <v>16.2</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
@@ -2284,10 +2309,10 @@
         <v>34</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -2299,44 +2324,76 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>48</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65">
+        <v>95.2</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>37</v>
       </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65">
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66">
         <v>20</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>60</v>
       </c>
-      <c r="G65" t="s">
-        <v>46</v>
-      </c>
-      <c r="J65">
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66">
         <v>93.7</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -2354,7 +2411,7 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>86.9</v>
@@ -2368,7 +2425,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -2386,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>86.9</v>
@@ -2400,7 +2457,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2418,7 +2475,7 @@
         <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>86.9</v>
@@ -2432,7 +2489,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -2450,7 +2507,7 @@
         <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>86.9</v>
@@ -2464,13 +2521,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -2482,7 +2539,7 @@
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>95.2</v>
@@ -2496,7 +2553,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -2514,7 +2571,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>95.2</v>
@@ -2528,7 +2585,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -2546,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>95.2</v>
@@ -2560,7 +2617,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
@@ -2578,7 +2635,7 @@
         <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>93.7</v>
@@ -2592,7 +2649,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -2610,7 +2667,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>89.4</v>
@@ -2624,7 +2681,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -2642,7 +2699,7 @@
         <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>89.4</v>
@@ -2656,7 +2713,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -2674,7 +2731,7 @@
         <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>89.4</v>
@@ -2688,7 +2745,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -2706,7 +2763,7 @@
         <v>72</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>89.4</v>
@@ -2720,7 +2777,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
         <v>32</v>
@@ -2732,48 +2789,48 @@
         <v>34</v>
       </c>
       <c r="E81">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J81">
-        <v>86.6</v>
+        <v>95.2</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
         <v>34</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J82">
-        <v>86.6</v>
+        <v>95.2</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -2784,33 +2841,4993 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83">
+        <v>95.2</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84">
+        <v>93.7</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>72</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85">
+        <v>92.4</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>72</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86">
+        <v>92.4</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="J87">
+        <v>92.4</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88">
+        <v>92.4</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90">
+        <v>86.6</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91">
+        <v>86.6</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92">
+        <v>86.6</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93">
+        <v>86.6</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>60</v>
+      </c>
+      <c r="G94" t="s">
+        <v>48</v>
+      </c>
+      <c r="J94">
+        <v>93.7</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>64</v>
+      </c>
+      <c r="G95" t="s">
         <v>49</v>
       </c>
-      <c r="B83" t="s">
+      <c r="J95">
+        <v>89.4</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>60</v>
+      </c>
+      <c r="G96" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96">
+        <v>89.4</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97">
+        <v>89.4</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>72</v>
+      </c>
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98">
+        <v>89.4</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>86.6</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101">
+        <v>86.6</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>42</v>
+      </c>
+      <c r="G102" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102">
+        <v>86.6</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103">
+        <v>86.6</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
         <v>36</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C104" t="s">
         <v>37</v>
       </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83">
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>54</v>
+      </c>
+      <c r="G104" t="s">
+        <v>49</v>
+      </c>
+      <c r="J104">
+        <v>84.3</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>64</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <v>86.9</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>69</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>86.9</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>48</v>
+      </c>
+      <c r="G107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>86.9</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="F108">
+        <v>56</v>
+      </c>
+      <c r="G108" t="s">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <v>86.9</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>95.2</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>95.2</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <v>95.2</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113">
         <v>20</v>
       </c>
-      <c r="F83">
+      <c r="F113">
         <v>60</v>
       </c>
-      <c r="G83" t="s">
-        <v>49</v>
-      </c>
-      <c r="J83">
+      <c r="G113" t="s">
+        <v>50</v>
+      </c>
+      <c r="J113">
         <v>93.7</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>56</v>
+      </c>
+      <c r="G114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114">
+        <v>64.8</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>57</v>
+      </c>
+      <c r="G115" t="s">
+        <v>51</v>
+      </c>
+      <c r="J115">
+        <v>64.8</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>48</v>
+      </c>
+      <c r="G116" t="s">
+        <v>51</v>
+      </c>
+      <c r="J116">
+        <v>64.8</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>51</v>
+      </c>
+      <c r="J117">
+        <v>64.8</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>51</v>
+      </c>
+      <c r="J119">
+        <v>34.6</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120">
+        <v>34.6</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>51</v>
+      </c>
+      <c r="J121">
+        <v>34.6</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>51</v>
+      </c>
+      <c r="J122">
+        <v>37.5</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123">
+        <v>56</v>
+      </c>
+      <c r="G123" t="s">
+        <v>52</v>
+      </c>
+      <c r="J123">
+        <v>64.8</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>57</v>
+      </c>
+      <c r="G124" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124">
+        <v>64.8</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s">
+        <v>52</v>
+      </c>
+      <c r="J125">
+        <v>64.8</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126">
+        <v>64.8</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>52</v>
+      </c>
+      <c r="J128">
+        <v>34.6</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>52</v>
+      </c>
+      <c r="J129">
+        <v>34.6</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>52</v>
+      </c>
+      <c r="J130">
+        <v>37.5</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>56</v>
+      </c>
+      <c r="G131" t="s">
+        <v>53</v>
+      </c>
+      <c r="J131">
+        <v>64.8</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>57</v>
+      </c>
+      <c r="G132" t="s">
+        <v>53</v>
+      </c>
+      <c r="J132">
+        <v>64.8</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133">
+        <v>48</v>
+      </c>
+      <c r="G133" t="s">
+        <v>53</v>
+      </c>
+      <c r="J133">
+        <v>64.8</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134">
+        <v>64.8</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>53</v>
+      </c>
+      <c r="J136">
+        <v>34.6</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>53</v>
+      </c>
+      <c r="J137">
+        <v>34.6</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>53</v>
+      </c>
+      <c r="J138">
+        <v>34.6</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>53</v>
+      </c>
+      <c r="J139">
+        <v>37.5</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>56</v>
+      </c>
+      <c r="G140" t="s">
+        <v>54</v>
+      </c>
+      <c r="J140">
+        <v>64.8</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>57</v>
+      </c>
+      <c r="G141" t="s">
+        <v>54</v>
+      </c>
+      <c r="J141">
+        <v>64.8</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>40</v>
+      </c>
+      <c r="G142" t="s">
+        <v>54</v>
+      </c>
+      <c r="J142">
+        <v>64.8</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>54</v>
+      </c>
+      <c r="J143">
+        <v>64.8</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>54</v>
+      </c>
+      <c r="J145">
+        <v>34.6</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>54</v>
+      </c>
+      <c r="J146">
+        <v>34.6</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>54</v>
+      </c>
+      <c r="J147">
+        <v>34.6</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s">
+        <v>54</v>
+      </c>
+      <c r="J148">
+        <v>37.5</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149">
+        <v>7</v>
+      </c>
+      <c r="F149">
+        <v>56</v>
+      </c>
+      <c r="G149" t="s">
+        <v>55</v>
+      </c>
+      <c r="J149">
+        <v>64.8</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>57</v>
+      </c>
+      <c r="G150" t="s">
+        <v>55</v>
+      </c>
+      <c r="J150">
+        <v>64.8</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s">
+        <v>55</v>
+      </c>
+      <c r="J151">
+        <v>64.8</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152">
+        <v>64.8</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154" t="s">
+        <v>55</v>
+      </c>
+      <c r="J154">
+        <v>34.6</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" t="s">
+        <v>33</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>55</v>
+      </c>
+      <c r="J155">
+        <v>34.6</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156" t="s">
+        <v>55</v>
+      </c>
+      <c r="J156">
+        <v>34.6</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>37</v>
+      </c>
+      <c r="D157" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
+      <c r="J157">
+        <v>37.5</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158">
+        <v>7</v>
+      </c>
+      <c r="F158">
+        <v>56</v>
+      </c>
+      <c r="G158" t="s">
+        <v>56</v>
+      </c>
+      <c r="J158">
+        <v>64.8</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>57</v>
+      </c>
+      <c r="G159" t="s">
+        <v>56</v>
+      </c>
+      <c r="J159">
+        <v>64.8</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>40</v>
+      </c>
+      <c r="G160" t="s">
+        <v>56</v>
+      </c>
+      <c r="J160">
+        <v>64.8</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>56</v>
+      </c>
+      <c r="J161">
+        <v>64.8</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>56</v>
+      </c>
+      <c r="J163">
+        <v>26</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164" t="s">
+        <v>56</v>
+      </c>
+      <c r="J164">
+        <v>26</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" t="s">
+        <v>37</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165">
+        <v>8</v>
+      </c>
+      <c r="F165">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s">
+        <v>56</v>
+      </c>
+      <c r="J165">
+        <v>37.5</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>56</v>
+      </c>
+      <c r="G166" t="s">
+        <v>57</v>
+      </c>
+      <c r="J166">
+        <v>64.8</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>57</v>
+      </c>
+      <c r="G167" t="s">
+        <v>57</v>
+      </c>
+      <c r="J167">
+        <v>64.8</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>57</v>
+      </c>
+      <c r="J168">
+        <v>64.8</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>31</v>
+      </c>
+      <c r="D169" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>57</v>
+      </c>
+      <c r="J169">
+        <v>64.8</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>57</v>
+      </c>
+      <c r="J171">
+        <v>34.6</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172" t="s">
+        <v>57</v>
+      </c>
+      <c r="J172">
+        <v>34.6</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173">
+        <v>8</v>
+      </c>
+      <c r="F173">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s">
+        <v>57</v>
+      </c>
+      <c r="J173">
+        <v>37.5</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <v>56</v>
+      </c>
+      <c r="G174" t="s">
+        <v>58</v>
+      </c>
+      <c r="J174">
+        <v>64.8</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175">
+        <v>10</v>
+      </c>
+      <c r="F175">
+        <v>57</v>
+      </c>
+      <c r="G175" t="s">
+        <v>58</v>
+      </c>
+      <c r="J175">
+        <v>64.8</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>48</v>
+      </c>
+      <c r="G176" t="s">
+        <v>58</v>
+      </c>
+      <c r="J176">
+        <v>64.8</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>31</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>58</v>
+      </c>
+      <c r="J177">
+        <v>64.8</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>58</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" t="s">
+        <v>44</v>
+      </c>
+      <c r="D179" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="G179" t="s">
+        <v>58</v>
+      </c>
+      <c r="J179">
+        <v>34.6</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>58</v>
+      </c>
+      <c r="J180">
+        <v>34.6</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181">
+        <v>34.6</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>24</v>
+      </c>
+      <c r="G182" t="s">
+        <v>58</v>
+      </c>
+      <c r="J182">
+        <v>37.5</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183">
+        <v>7</v>
+      </c>
+      <c r="F183">
+        <v>56</v>
+      </c>
+      <c r="G183" t="s">
+        <v>59</v>
+      </c>
+      <c r="J183">
+        <v>64.8</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>57</v>
+      </c>
+      <c r="G184" t="s">
+        <v>59</v>
+      </c>
+      <c r="J184">
+        <v>64.8</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>48</v>
+      </c>
+      <c r="G185" t="s">
+        <v>59</v>
+      </c>
+      <c r="J185">
+        <v>64.8</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>58</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>31</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>59</v>
+      </c>
+      <c r="J186">
+        <v>64.8</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" t="s">
+        <v>44</v>
+      </c>
+      <c r="D188" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+      <c r="G188" t="s">
+        <v>59</v>
+      </c>
+      <c r="J188">
+        <v>34.6</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>59</v>
+      </c>
+      <c r="J189">
+        <v>34.6</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="G190" t="s">
+        <v>59</v>
+      </c>
+      <c r="J190">
+        <v>34.6</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>59</v>
+      </c>
+      <c r="J191">
+        <v>37.5</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192">
+        <v>7</v>
+      </c>
+      <c r="F192">
+        <v>56</v>
+      </c>
+      <c r="G192" t="s">
+        <v>60</v>
+      </c>
+      <c r="J192">
+        <v>64.8</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193">
+        <v>10</v>
+      </c>
+      <c r="F193">
+        <v>57</v>
+      </c>
+      <c r="G193" t="s">
+        <v>60</v>
+      </c>
+      <c r="J193">
+        <v>64.8</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>40</v>
+      </c>
+      <c r="G194" t="s">
+        <v>60</v>
+      </c>
+      <c r="J194">
+        <v>64.8</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>31</v>
+      </c>
+      <c r="D195" t="s">
+        <v>30</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>60</v>
+      </c>
+      <c r="J195">
+        <v>64.8</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>60</v>
+      </c>
+      <c r="B197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>60</v>
+      </c>
+      <c r="J197">
+        <v>34.6</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>60</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>6</v>
+      </c>
+      <c r="G198" t="s">
+        <v>60</v>
+      </c>
+      <c r="J198">
+        <v>34.6</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>60</v>
+      </c>
+      <c r="B199" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>24</v>
+      </c>
+      <c r="G199" t="s">
+        <v>60</v>
+      </c>
+      <c r="J199">
+        <v>37.5</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>56</v>
+      </c>
+      <c r="G200" t="s">
+        <v>61</v>
+      </c>
+      <c r="J200">
+        <v>71</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>60</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+      <c r="F201">
+        <v>57</v>
+      </c>
+      <c r="G201" t="s">
+        <v>61</v>
+      </c>
+      <c r="J201">
+        <v>71</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>60</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202">
+        <v>56</v>
+      </c>
+      <c r="G202" t="s">
+        <v>61</v>
+      </c>
+      <c r="J202">
+        <v>71</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="s">
+        <v>31</v>
+      </c>
+      <c r="D203" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>61</v>
+      </c>
+      <c r="J203">
+        <v>71</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>61</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" t="s">
+        <v>44</v>
+      </c>
+      <c r="D205" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>3</v>
+      </c>
+      <c r="G205" t="s">
+        <v>61</v>
+      </c>
+      <c r="J205">
+        <v>34.6</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>61</v>
+      </c>
+      <c r="B206" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
+        <v>61</v>
+      </c>
+      <c r="J206">
+        <v>34.6</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>61</v>
+      </c>
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>61</v>
+      </c>
+      <c r="J207">
+        <v>34.6</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>61</v>
+      </c>
+      <c r="B208" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208" t="s">
+        <v>61</v>
+      </c>
+      <c r="J208">
+        <v>37.5</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>61</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209">
+        <v>7</v>
+      </c>
+      <c r="F209">
+        <v>56</v>
+      </c>
+      <c r="G209" t="s">
+        <v>62</v>
+      </c>
+      <c r="J209">
+        <v>71</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <v>57</v>
+      </c>
+      <c r="G210" t="s">
+        <v>62</v>
+      </c>
+      <c r="J210">
+        <v>71</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>56</v>
+      </c>
+      <c r="G211" t="s">
+        <v>62</v>
+      </c>
+      <c r="J211">
+        <v>71</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" t="s">
+        <v>31</v>
+      </c>
+      <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>62</v>
+      </c>
+      <c r="J212">
+        <v>71</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>62</v>
+      </c>
+      <c r="B214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+      <c r="D214" t="s">
+        <v>34</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>6</v>
+      </c>
+      <c r="G214" t="s">
+        <v>62</v>
+      </c>
+      <c r="J214">
+        <v>34.6</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" t="s">
+        <v>32</v>
+      </c>
+      <c r="C215" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" t="s">
+        <v>34</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>62</v>
+      </c>
+      <c r="J215">
+        <v>34.6</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" t="s">
+        <v>34</v>
+      </c>
+      <c r="E216">
+        <v>8</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>62</v>
+      </c>
+      <c r="J216">
+        <v>37.5</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>63</v>
+      </c>
+      <c r="J217">
+        <v>52.7</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>62</v>
+      </c>
+      <c r="B218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218">
+        <v>27</v>
+      </c>
+      <c r="G218" t="s">
+        <v>63</v>
+      </c>
+      <c r="J218">
+        <v>52.7</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219">
+        <v>7</v>
+      </c>
+      <c r="F219">
+        <v>56</v>
+      </c>
+      <c r="G219" t="s">
+        <v>63</v>
+      </c>
+      <c r="J219">
+        <v>52.7</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>62</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" t="s">
+        <v>30</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>63</v>
+      </c>
+      <c r="J220">
+        <v>52.7</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>44</v>
+      </c>
+      <c r="D222" t="s">
+        <v>34</v>
+      </c>
+      <c r="E222">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>9</v>
+      </c>
+      <c r="G222" t="s">
+        <v>63</v>
+      </c>
+      <c r="J222">
+        <v>34.6</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B223" t="s">
+        <v>32</v>
+      </c>
+      <c r="C223" t="s">
+        <v>33</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <v>15</v>
+      </c>
+      <c r="G223" t="s">
+        <v>63</v>
+      </c>
+      <c r="J223">
+        <v>34.6</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>63</v>
+      </c>
+      <c r="B224" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>24</v>
+      </c>
+      <c r="G224" t="s">
+        <v>63</v>
+      </c>
+      <c r="J224">
+        <v>37.5</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>63</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <v>56</v>
+      </c>
+      <c r="G225" t="s">
+        <v>64</v>
+      </c>
+      <c r="J225">
+        <v>58.6</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>63</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226">
+        <v>57</v>
+      </c>
+      <c r="G226" t="s">
+        <v>64</v>
+      </c>
+      <c r="J226">
+        <v>58.6</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>63</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" t="s">
+        <v>29</v>
+      </c>
+      <c r="D227" t="s">
+        <v>30</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
+        <v>64</v>
+      </c>
+      <c r="J227">
+        <v>58.6</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="s">
+        <v>31</v>
+      </c>
+      <c r="D228" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>64</v>
+      </c>
+      <c r="J228">
+        <v>58.6</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>64</v>
+      </c>
+      <c r="B230" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>64</v>
+      </c>
+      <c r="J230">
+        <v>26</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>64</v>
+      </c>
+      <c r="B231" t="s">
+        <v>32</v>
+      </c>
+      <c r="C231" t="s">
+        <v>35</v>
+      </c>
+      <c r="D231" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+      <c r="G231" t="s">
+        <v>64</v>
+      </c>
+      <c r="J231">
+        <v>26</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232" t="s">
+        <v>36</v>
+      </c>
+      <c r="C232" t="s">
+        <v>37</v>
+      </c>
+      <c r="D232" t="s">
+        <v>34</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>64</v>
+      </c>
+      <c r="J232">
+        <v>37.5</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>64</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
+      </c>
+      <c r="F233">
+        <v>64</v>
+      </c>
+      <c r="G233" t="s">
+        <v>65</v>
+      </c>
+      <c r="J233">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>64</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>57</v>
+      </c>
+      <c r="G234" t="s">
+        <v>65</v>
+      </c>
+      <c r="J234">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>65</v>
+      </c>
+      <c r="B236" t="s">
+        <v>32</v>
+      </c>
+      <c r="C236" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236">
+        <v>8</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>65</v>
+      </c>
+      <c r="J236">
+        <v>34.6</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>65</v>
+      </c>
+      <c r="B237" t="s">
+        <v>36</v>
+      </c>
+      <c r="C237" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237">
+        <v>15</v>
+      </c>
+      <c r="F237">
+        <v>45</v>
+      </c>
+      <c r="G237" t="s">
+        <v>65</v>
+      </c>
+      <c r="J237">
+        <v>75</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>65</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" t="s">
+        <v>30</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
+        <v>40</v>
+      </c>
+      <c r="G238" t="s">
+        <v>66</v>
+      </c>
+      <c r="J238">
+        <v>43.1</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>65</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>31</v>
+      </c>
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239">
+        <v>7</v>
+      </c>
+      <c r="F239">
+        <v>56</v>
+      </c>
+      <c r="G239" t="s">
+        <v>66</v>
+      </c>
+      <c r="J239">
+        <v>43.1</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>66</v>
+      </c>
+      <c r="B241" t="s">
+        <v>32</v>
+      </c>
+      <c r="C241" t="s">
+        <v>44</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241" t="s">
+        <v>66</v>
+      </c>
+      <c r="J241">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>66</v>
+      </c>
+      <c r="B242" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" t="s">
+        <v>35</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+      <c r="G242" t="s">
+        <v>66</v>
+      </c>
+      <c r="J242">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>7</v>
+      </c>
+      <c r="F243">
+        <v>56</v>
+      </c>
+      <c r="G243" t="s">
+        <v>67</v>
+      </c>
+      <c r="J243">
+        <v>83.3</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>66</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244">
+        <v>10</v>
+      </c>
+      <c r="F244">
+        <v>57</v>
+      </c>
+      <c r="G244" t="s">
+        <v>67</v>
+      </c>
+      <c r="J244">
+        <v>83.3</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>66</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>29</v>
+      </c>
+      <c r="D245" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>40</v>
+      </c>
+      <c r="G245" t="s">
+        <v>67</v>
+      </c>
+      <c r="J245">
+        <v>83.3</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>66</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" t="s">
+        <v>30</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
+      </c>
+      <c r="F246">
+        <v>56</v>
+      </c>
+      <c r="G246" t="s">
+        <v>67</v>
+      </c>
+      <c r="J246">
+        <v>83.3</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+      <c r="E248">
+        <v>14</v>
+      </c>
+      <c r="F248">
+        <v>42</v>
+      </c>
+      <c r="G248" t="s">
+        <v>67</v>
+      </c>
+      <c r="J248">
+        <v>69.3</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>6</v>
+      </c>
+      <c r="G249" t="s">
+        <v>67</v>
+      </c>
+      <c r="J249">
+        <v>69.3</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>67</v>
+      </c>
+      <c r="B250" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" t="s">
+        <v>37</v>
+      </c>
+      <c r="D250" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250">
+        <v>18</v>
+      </c>
+      <c r="F250">
+        <v>54</v>
+      </c>
+      <c r="G250" t="s">
+        <v>67</v>
+      </c>
+      <c r="J250">
+        <v>84.3</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251">
+        <v>7</v>
+      </c>
+      <c r="F251">
+        <v>56</v>
+      </c>
+      <c r="G251" t="s">
+        <v>68</v>
+      </c>
+      <c r="J251">
+        <v>83.3</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252">
+        <v>10</v>
+      </c>
+      <c r="F252">
+        <v>57</v>
+      </c>
+      <c r="G252" t="s">
+        <v>68</v>
+      </c>
+      <c r="J252">
+        <v>83.3</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" t="s">
+        <v>29</v>
+      </c>
+      <c r="D253" t="s">
+        <v>30</v>
+      </c>
+      <c r="E253">
+        <v>6</v>
+      </c>
+      <c r="F253">
+        <v>48</v>
+      </c>
+      <c r="G253" t="s">
+        <v>68</v>
+      </c>
+      <c r="J253">
+        <v>83.3</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" t="s">
+        <v>31</v>
+      </c>
+      <c r="D254" t="s">
+        <v>30</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>56</v>
+      </c>
+      <c r="G254" t="s">
+        <v>68</v>
+      </c>
+      <c r="J254">
+        <v>83.3</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>68</v>
+      </c>
+      <c r="B256" t="s">
+        <v>32</v>
+      </c>
+      <c r="C256" t="s">
+        <v>44</v>
+      </c>
+      <c r="D256" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+      <c r="G256" t="s">
+        <v>68</v>
+      </c>
+      <c r="J256">
+        <v>69.3</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>68</v>
+      </c>
+      <c r="B257" t="s">
+        <v>32</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257">
+        <v>14</v>
+      </c>
+      <c r="F257">
+        <v>42</v>
+      </c>
+      <c r="G257" t="s">
+        <v>68</v>
+      </c>
+      <c r="J257">
+        <v>69.3</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B258" t="s">
+        <v>32</v>
+      </c>
+      <c r="C258" t="s">
+        <v>35</v>
+      </c>
+      <c r="D258" t="s">
+        <v>34</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>68</v>
+      </c>
+      <c r="J258">
+        <v>69.3</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>68</v>
+      </c>
+      <c r="B259" t="s">
+        <v>36</v>
+      </c>
+      <c r="C259" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259">
+        <v>19</v>
+      </c>
+      <c r="F259">
+        <v>57</v>
+      </c>
+      <c r="G259" t="s">
+        <v>68</v>
+      </c>
+      <c r="J259">
+        <v>93.7</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
         <v>26</v>
       </c>
     </row>
